--- a/mt32-pi-bay/BOM.xlsx
+++ b/mt32-pi-bay/BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
   <si>
     <t>Reference</t>
   </si>
@@ -220,6 +220,15 @@
   </si>
   <si>
     <t>Source from Home Depot, Lowes, Amazon, etc.</t>
+  </si>
+  <si>
+    <t>6mm shaft diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source from Ebay, Amazon, Aliexpress. </t>
+  </si>
+  <si>
+    <t>Knob</t>
   </si>
 </sst>
 </file>
@@ -761,11 +770,11 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1088,15 +1097,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="77" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.85546875" bestFit="1" customWidth="1"/>
@@ -1106,16 +1115,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1378,7 +1387,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1386,7 +1395,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1405,7 +1414,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B17" t="s">
@@ -1416,6 +1425,20 @@
       </c>
       <c r="D17" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
